--- a/data/trans_orig/P6607-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8F4FC5C-AAA4-4EF1-AB5C-E39A14C9A9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57553115-4FFD-4AD6-944D-662EDF965664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{10C590FF-8314-405B-A772-82A4FBE45DBC}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83A951C5-FC05-4662-9633-F581B206B85F}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="622">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>20,59%</t>
   </si>
   <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>31,92%</t>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
   </si>
   <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>22,77%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>44,33%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,1819 +106,1789 @@
     <t>28,11%</t>
   </si>
   <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>27,66%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>49,42%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>39,14%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>28,98%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>64,17%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>54,75%</t>
+  </si>
+  <si>
+    <t>14,94%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>32,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>45,65%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>78,26%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>22,36%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>64,13%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>25,28%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,06%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,7%</t>
+  </si>
+  <si>
+    <t>75,65%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,64%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>39,17%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>50,51%</t>
+  </si>
+  <si>
+    <t>82,24%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>30,72%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>40,25%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>43,36%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>61,13%</t>
+  </si>
+  <si>
+    <t>76,97%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>49,22%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,91%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>40,36%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>62,09%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>45,38%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,56%</t>
+  </si>
+  <si>
+    <t>37,5%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>35,29%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>42,96%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,66%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>72,53%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,41%</t>
+  </si>
+  <si>
+    <t>53,71%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>21,04%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
     <t>16,74%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>44,42%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>38,08%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>37,19%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>41,16%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>79,82%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,15%</t>
-  </si>
-  <si>
-    <t>54,78%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>14,2%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>46,47%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>49,59%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>47,66%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>49,11%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
   </si>
   <si>
     <t>22,56%</t>
   </si>
   <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>25,18%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>41,18%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>69,79%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,37%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,01%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
   </si>
   <si>
     <t>21,55%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
   </si>
   <si>
     <t>10,35%</t>
   </si>
   <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,32%</t>
-  </si>
-  <si>
-    <t>43,49%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>55,8%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>14,79%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>42,72%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>30,02%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>61,32%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>50,22%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>26,5%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>30,34%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>54,1%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,98%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>28,51%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>20,31%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>61,52%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>45,77%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>37,94%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,31%</t>
-  </si>
-  <si>
-    <t>34,91%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,08%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
   </si>
   <si>
     <t>53,04%</t>
   </si>
   <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>73,81%</t>
-  </si>
-  <si>
-    <t>83,25%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>64,97%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>17,76%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,61%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,38%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>72,64%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>51,58%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>48,73%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>44,77%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>18,11%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>16,05%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,35%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>53,89%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
     <t>47,96%</t>
   </si>
   <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,41%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>43,63%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,06%</t>
-  </si>
-  <si>
-    <t>70,62%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>53,02%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>28,04%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>58,61%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>46,46%</t>
-  </si>
-  <si>
-    <t>59,14%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>37,72%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>35,04%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,85%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>24,39%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>44,04%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>56,09%</t>
+    <t>56,15%</t>
   </si>
   <si>
     <t>22,75%</t>
   </si>
   <si>
-    <t>26,04%</t>
+    <t>18,8%</t>
   </si>
   <si>
     <t>17,3%</t>
   </si>
   <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>17,42%</t>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
   </si>
   <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
   </si>
   <si>
     <t>22,73%</t>
   </si>
   <si>
-    <t>17,31%</t>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
   </si>
   <si>
     <t>6,66%</t>
@@ -1927,16 +1897,13 @@
     <t>5,04%</t>
   </si>
   <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,56%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{870252BC-E776-4121-B160-F5645B17900D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43356CEC-91DF-493E-9558-B94DB1606061}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2780,13 +2747,13 @@
         <v>43052</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2795,13 +2762,13 @@
         <v>18985</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -2810,13 +2777,13 @@
         <v>62038</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2831,13 +2798,13 @@
         <v>40605</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2846,13 +2813,13 @@
         <v>11424</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -2861,13 +2828,13 @@
         <v>52029</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,13 +2849,13 @@
         <v>56439</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2897,13 +2864,13 @@
         <v>6849</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -2912,13 +2879,13 @@
         <v>63288</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2974,7 +2941,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2986,13 +2953,13 @@
         <v>166492</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -3001,13 +2968,13 @@
         <v>197196</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>330</v>
@@ -3016,13 +2983,13 @@
         <v>363688</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3004,13 @@
         <v>81817</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -3052,13 +3019,13 @@
         <v>46634</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>121</v>
@@ -3067,13 +3034,13 @@
         <v>128451</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3088,13 +3055,13 @@
         <v>73865</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>108</v>
-      </c>
       <c r="G16" s="7" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3103,13 +3070,13 @@
         <v>8915</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3118,13 +3085,13 @@
         <v>82781</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3139,13 +3106,13 @@
         <v>84980</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3154,13 +3121,13 @@
         <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3169,13 +3136,13 @@
         <v>102746</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,7 +3198,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3243,13 +3210,13 @@
         <v>133724</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -3258,13 +3225,13 @@
         <v>152834</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -3273,13 +3240,13 @@
         <v>286558</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3294,13 +3261,13 @@
         <v>63016</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -3309,13 +3276,13 @@
         <v>36487</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -3324,13 +3291,13 @@
         <v>99504</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3345,13 +3312,13 @@
         <v>63559</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3360,13 +3327,13 @@
         <v>13855</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -3375,13 +3342,13 @@
         <v>77414</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3396,13 +3363,13 @@
         <v>59865</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3411,13 +3378,13 @@
         <v>11165</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -3426,13 +3393,13 @@
         <v>71031</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3488,7 +3455,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3500,13 +3467,13 @@
         <v>191322</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>219</v>
@@ -3515,13 +3482,13 @@
         <v>227234</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>401</v>
@@ -3530,13 +3497,13 @@
         <v>418556</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3551,13 +3518,13 @@
         <v>96001</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3566,13 +3533,13 @@
         <v>44005</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M25" s="7">
         <v>134</v>
@@ -3581,13 +3548,13 @@
         <v>140006</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3602,13 +3569,13 @@
         <v>74371</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3617,13 +3584,13 @@
         <v>16510</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3632,13 +3599,13 @@
         <v>90881</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,13 +3620,13 @@
         <v>55185</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3689,7 +3656,7 @@
         <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>113</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,13 +3724,13 @@
         <v>578236</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>639</v>
@@ -3772,13 +3739,13 @@
         <v>690546</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>1180</v>
@@ -3787,13 +3754,13 @@
         <v>1268782</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,13 +3775,13 @@
         <v>298429</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>141</v>
@@ -3823,13 +3790,13 @@
         <v>151411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -3838,13 +3805,13 @@
         <v>449840</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,13 +3826,13 @@
         <v>260847</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
@@ -3874,13 +3841,13 @@
         <v>50704</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>294</v>
@@ -3889,13 +3856,13 @@
         <v>311551</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3910,13 +3877,13 @@
         <v>274563</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H32" s="7">
         <v>48</v>
@@ -3925,13 +3892,13 @@
         <v>53829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M32" s="7">
         <v>303</v>
@@ -3940,13 +3907,13 @@
         <v>328392</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4002,7 +3969,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4023,7 +3990,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4348413-D25E-4694-A723-213CFB647422}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1C5BEE-2254-45EA-8B73-360783CB3F93}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4040,7 +4007,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4147,13 +4114,13 @@
         <v>10325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4162,13 +4129,13 @@
         <v>20301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4177,13 +4144,13 @@
         <v>30627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4198,13 +4165,13 @@
         <v>13294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4213,13 +4180,13 @@
         <v>7057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4228,13 +4195,13 @@
         <v>20351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>180</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4216,13 @@
         <v>12481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4264,13 +4231,13 @@
         <v>1592</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4279,13 +4246,13 @@
         <v>14073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4300,13 +4267,13 @@
         <v>6813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4315,13 +4282,13 @@
         <v>941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4330,13 +4297,13 @@
         <v>7753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4371,13 @@
         <v>88980</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -4419,13 +4386,13 @@
         <v>95276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -4434,13 +4401,13 @@
         <v>184256</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4422,13 @@
         <v>37156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4470,13 +4437,13 @@
         <v>25488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>278</v>
+        <v>245</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4485,10 +4452,10 @@
         <v>62644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>281</v>
+        <v>223</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>282</v>
@@ -4512,7 +4479,7 @@
         <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>106</v>
+        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4521,13 +4488,13 @@
         <v>4771</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4536,13 +4503,13 @@
         <v>37777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>149</v>
+        <v>289</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4524,13 @@
         <v>40127</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4572,13 +4539,13 @@
         <v>11062</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -4587,13 +4554,13 @@
         <v>51190</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,7 +4616,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4664,10 +4631,10 @@
         <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -4676,13 +4643,13 @@
         <v>198395</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>326</v>
@@ -4691,13 +4658,13 @@
         <v>341790</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4679,13 @@
         <v>105418</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -4727,13 +4694,13 @@
         <v>40387</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M15" s="7">
         <v>132</v>
@@ -4742,13 +4709,13 @@
         <v>145805</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>315</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4766,7 @@
         <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>75</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4814,13 +4781,13 @@
         <v>98282</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4829,13 +4796,13 @@
         <v>19140</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4844,13 +4811,13 @@
         <v>117423</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,7 +4873,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4918,13 +4885,13 @@
         <v>110830</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -4933,13 +4900,13 @@
         <v>151123</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -4948,13 +4915,13 @@
         <v>261952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4969,13 +4936,13 @@
         <v>118009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4984,13 +4951,13 @@
         <v>80619</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>181</v>
@@ -4999,13 +4966,13 @@
         <v>198628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5020,13 +4987,13 @@
         <v>59150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -5035,13 +5002,13 @@
         <v>20309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -5050,13 +5017,13 @@
         <v>79459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5071,13 +5038,13 @@
         <v>74715</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5086,13 +5053,13 @@
         <v>18508</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -5101,13 +5068,13 @@
         <v>93223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,7 +5130,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5175,13 +5142,13 @@
         <v>191978</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H24" s="7">
         <v>240</v>
@@ -5190,13 +5157,13 @@
         <v>255075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -5205,13 +5172,13 @@
         <v>447053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5226,13 +5193,13 @@
         <v>88166</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>87</v>
+        <v>379</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5241,13 +5208,13 @@
         <v>38332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>380</v>
+        <v>298</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -5256,10 +5223,10 @@
         <v>126498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>384</v>
+        <v>75</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>385</v>
@@ -5310,10 +5277,10 @@
         <v>392</v>
       </c>
       <c r="P26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5328,13 +5295,13 @@
         <v>56383</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="F27" s="7" t="s">
-        <v>396</v>
-      </c>
       <c r="G27" s="7" t="s">
-        <v>397</v>
+        <v>251</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -5343,13 +5310,13 @@
         <v>9390</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M27" s="7">
         <v>64</v>
@@ -5358,13 +5325,13 @@
         <v>65773</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>402</v>
+        <v>328</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5432,13 +5399,13 @@
         <v>545508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="H29" s="7">
         <v>704</v>
@@ -5447,13 +5414,13 @@
         <v>720170</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
@@ -5462,13 +5429,13 @@
         <v>1265678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>96</v>
+        <v>408</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5483,13 +5450,13 @@
         <v>362042</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>185</v>
@@ -5498,13 +5465,13 @@
         <v>191882</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -5513,13 +5480,13 @@
         <v>553924</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5534,13 +5501,13 @@
         <v>227972</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="F31" s="7" t="s">
-        <v>421</v>
-      </c>
       <c r="G31" s="7" t="s">
-        <v>422</v>
+        <v>122</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -5549,13 +5516,13 @@
         <v>64201</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>423</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="M31" s="7">
         <v>274</v>
@@ -5564,13 +5531,13 @@
         <v>292173</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>426</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5585,13 +5552,13 @@
         <v>276320</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>429</v>
+        <v>313</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -5600,13 +5567,13 @@
         <v>59041</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>433</v>
+        <v>329</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="M32" s="7">
         <v>316</v>
@@ -5615,13 +5582,13 @@
         <v>335362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5677,7 +5644,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -5698,7 +5665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F2F9C3A-2EBA-4E2B-B083-4CFD5E248462}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5244CEBF-582D-4362-AA32-A354771D24CF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5715,7 +5682,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5822,13 +5789,13 @@
         <v>5550</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5837,13 +5804,13 @@
         <v>8155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5852,13 +5819,13 @@
         <v>13705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5840,13 @@
         <v>5286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>327</v>
+        <v>445</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5888,13 +5855,13 @@
         <v>5871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5903,13 +5870,13 @@
         <v>11157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5924,13 +5891,13 @@
         <v>2556</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5945,7 +5912,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5954,13 +5921,13 @@
         <v>2556</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5975,13 +5942,13 @@
         <v>8923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5990,13 +5957,13 @@
         <v>2823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -6005,13 +5972,13 @@
         <v>11746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>469</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6079,13 +6046,13 @@
         <v>39447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H9" s="7">
         <v>107</v>
@@ -6094,13 +6061,13 @@
         <v>72525</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -6109,13 +6076,13 @@
         <v>111972</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6130,13 +6097,13 @@
         <v>46637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6145,13 +6112,13 @@
         <v>14816</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>484</v>
+        <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -6160,13 +6127,13 @@
         <v>61453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>282</v>
+        <v>481</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,13 +6148,13 @@
         <v>21561</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>488</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>109</v>
+        <v>485</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6196,13 +6163,13 @@
         <v>11625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -6211,13 +6178,13 @@
         <v>33186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6232,13 +6199,13 @@
         <v>44843</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -6247,13 +6214,13 @@
         <v>18013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>446</v>
+        <v>496</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -6262,13 +6229,13 @@
         <v>62856</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>502</v>
+        <v>369</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,7 +6291,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6336,13 +6303,13 @@
         <v>131097</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -6351,13 +6318,13 @@
         <v>145588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="M14" s="7">
         <v>307</v>
@@ -6366,13 +6333,13 @@
         <v>276685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6387,13 +6354,13 @@
         <v>68167</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>244</v>
+        <v>508</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>149</v>
+        <v>509</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="H15" s="7">
         <v>67</v>
@@ -6402,13 +6369,13 @@
         <v>50169</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -6417,13 +6384,13 @@
         <v>118336</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6438,13 +6405,13 @@
         <v>54623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6453,13 +6420,13 @@
         <v>12365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -6468,13 +6435,13 @@
         <v>66988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>356</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>527</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6489,13 +6456,13 @@
         <v>112723</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>529</v>
+        <v>251</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6504,13 +6471,13 @@
         <v>15807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>533</v>
+        <v>330</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -6519,13 +6486,13 @@
         <v>128530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6581,7 +6548,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6593,13 +6560,13 @@
         <v>63306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>539</v>
+        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6608,13 +6575,13 @@
         <v>114310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -6623,13 +6590,13 @@
         <v>177617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6644,13 +6611,13 @@
         <v>53729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -6659,13 +6626,13 @@
         <v>26054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -6674,13 +6641,13 @@
         <v>79784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6695,13 +6662,13 @@
         <v>32851</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>556</v>
+        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -6713,10 +6680,10 @@
         <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>557</v>
+        <v>454</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -6725,13 +6692,13 @@
         <v>41794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>387</v>
+        <v>551</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>521</v>
+        <v>552</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6713,13 @@
         <v>29279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>560</v>
+        <v>448</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>561</v>
+        <v>425</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6761,13 +6728,13 @@
         <v>5274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6776,13 +6743,13 @@
         <v>34554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>187</v>
+        <v>558</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6838,7 +6805,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6850,13 +6817,13 @@
         <v>141239</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="H24" s="7">
         <v>226</v>
@@ -6865,13 +6832,13 @@
         <v>163884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="M24" s="7">
         <v>362</v>
@@ -6880,13 +6847,13 @@
         <v>305124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6901,13 +6868,13 @@
         <v>43571</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>422</v>
+        <v>570</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6916,13 +6883,13 @@
         <v>26462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -6931,13 +6898,13 @@
         <v>70033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>583</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6952,13 +6919,13 @@
         <v>28704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>101</v>
+        <v>579</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -6967,13 +6934,13 @@
         <v>4977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6982,13 +6949,13 @@
         <v>33681</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +6970,13 @@
         <v>21447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -7018,13 +6985,13 @@
         <v>5597</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -7033,13 +7000,13 @@
         <v>27044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7107,13 +7074,13 @@
         <v>380639</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="H29" s="7">
         <v>688</v>
@@ -7122,13 +7089,13 @@
         <v>504463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>1035</v>
@@ -7137,13 +7104,13 @@
         <v>885102</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>371</v>
+        <v>600</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7125,13 @@
         <v>217389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>422</v>
+        <v>604</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>609</v>
+        <v>381</v>
       </c>
       <c r="H30" s="7">
         <v>159</v>
@@ -7173,13 +7140,13 @@
         <v>123373</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>612</v>
+        <v>428</v>
       </c>
       <c r="M30" s="7">
         <v>364</v>
@@ -7188,13 +7155,13 @@
         <v>340763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>613</v>
+        <v>333</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7176,13 @@
         <v>140295</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>616</v>
+        <v>152</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>617</v>
+        <v>392</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>618</v>
+        <v>609</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -7224,13 +7191,13 @@
         <v>37910</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>619</v>
+        <v>610</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="M31" s="7">
         <v>174</v>
@@ -7239,13 +7206,13 @@
         <v>178204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>622</v>
+        <v>425</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>624</v>
+        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7227,13 @@
         <v>217216</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>625</v>
+        <v>614</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>626</v>
+        <v>615</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>52</v>
+        <v>616</v>
       </c>
       <c r="H32" s="7">
         <v>64</v>
@@ -7275,13 +7242,13 @@
         <v>47515</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="M32" s="7">
         <v>221</v>
@@ -7290,13 +7257,13 @@
         <v>264731</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>630</v>
+        <v>104</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>631</v>
+        <v>620</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>632</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7352,7 +7319,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Habitat-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57553115-4FFD-4AD6-944D-662EDF965664}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{209AED77-D8B7-4BB3-95A9-152C32F5C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{83A951C5-FC05-4662-9633-F581B206B85F}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{151C1FC1-1C20-43F5-8BC5-E6FB1CBBED5B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="623">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -76,28 +76,28 @@
     <t>20,59%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>79,2%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
   </si>
   <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>44,33%</t>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,1798 +106,1801 @@
     <t>28,11%</t>
   </si>
   <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>41,7%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>42,63%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>Muchas veces</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>8,41%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>50,19%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>40,14%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>41,41%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,23%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>22,98%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>78,23%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>49,86%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>25,6%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>48,18%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>57,94%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,65%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>24,01%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>51,18%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,99%</t>
+  </si>
+  <si>
+    <t>80,3%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,7%</t>
+  </si>
+  <si>
+    <t>61,94%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,51%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>54,04%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>44,59%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>52,18%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>62,2%</t>
+  </si>
+  <si>
+    <t>77,3%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>48,68%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>19,88%</t>
+  </si>
+  <si>
+    <t>30,47%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>46,23%</t>
+  </si>
+  <si>
+    <t>54,3%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>20,5%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,11%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>37,78%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>35,3%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>15,73%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>53,09%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>82,97%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>58,22%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>14,37%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>36,08%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>21,74%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>48,17%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>59,72%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>30,54%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>67,28%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>53,49%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>47,74%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>39,67%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
     <t>8,4%</t>
   </si>
   <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>Muchas veces</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>27,66%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>19,47%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>49,42%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>39,14%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>28,98%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>64,17%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>54,75%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>32,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,92%</t>
-  </si>
-  <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>18,77%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>28,3%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>53,13%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>28,41%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>57,49%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>37,98%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>67,06%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,69%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>24,81%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>32,48%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,64%</t>
+  </si>
+  <si>
+    <t>74,01%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>56,15%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>37,83%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
   </si>
   <si>
     <t>15,86%</t>
-  </si>
-  <si>
-    <t>22,36%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>18,36%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,18%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,13%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>22,9%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>25,28%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>51,12%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,06%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>69,7%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,64%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2015 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>39,17%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>50,51%</t>
-  </si>
-  <si>
-    <t>82,24%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>30,72%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>43,36%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>61,13%</t>
-  </si>
-  <si>
-    <t>76,97%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>49,22%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>23,2%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>45,93%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,5%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>62,09%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,09%</t>
-  </si>
-  <si>
-    <t>45,38%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,56%</t>
-  </si>
-  <si>
-    <t>37,5%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>35,29%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>21,14%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>42,96%</t>
-  </si>
-  <si>
-    <t>52,92%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>36,28%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>72,53%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>53,71%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>21,04%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
   </si>
   <si>
     <t>12,73%</t>
@@ -2315,7 +2318,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43356CEC-91DF-493E-9558-B94DB1606061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BB83B4-99F2-486C-A22B-ED3F17F0A022}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2747,13 +2750,13 @@
         <v>43052</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -2762,13 +2765,13 @@
         <v>18985</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -2777,13 +2780,13 @@
         <v>62038</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2798,13 +2801,13 @@
         <v>40605</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -2813,13 +2816,13 @@
         <v>11424</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>50</v>
@@ -2828,13 +2831,13 @@
         <v>52029</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2849,13 +2852,13 @@
         <v>56439</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>6</v>
@@ -2864,13 +2867,13 @@
         <v>6849</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>60</v>
@@ -2879,13 +2882,13 @@
         <v>63288</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2941,7 +2944,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -2953,13 +2956,13 @@
         <v>166492</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>179</v>
@@ -2968,13 +2971,13 @@
         <v>197196</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>330</v>
@@ -2983,13 +2986,13 @@
         <v>363688</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3004,13 +3007,13 @@
         <v>81817</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H15" s="7">
         <v>43</v>
@@ -3019,13 +3022,13 @@
         <v>46634</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M15" s="7">
         <v>121</v>
@@ -3034,13 +3037,13 @@
         <v>128451</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3055,13 +3058,13 @@
         <v>73865</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>42</v>
+        <v>109</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3070,13 +3073,13 @@
         <v>8915</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M16" s="7">
         <v>77</v>
@@ -3085,13 +3088,13 @@
         <v>82781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3106,13 +3109,13 @@
         <v>84980</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>115</v>
+        <v>22</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3121,13 +3124,13 @@
         <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3136,13 +3139,13 @@
         <v>102746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3198,7 +3201,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3210,13 +3213,13 @@
         <v>133724</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -3225,13 +3228,13 @@
         <v>152834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -3240,13 +3243,13 @@
         <v>286558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3261,13 +3264,13 @@
         <v>63016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -3276,13 +3279,13 @@
         <v>36487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -3291,13 +3294,13 @@
         <v>99504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3312,10 +3315,10 @@
         <v>63559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>144</v>
@@ -3569,13 +3572,13 @@
         <v>74371</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3584,13 +3587,13 @@
         <v>16510</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3599,13 +3602,13 @@
         <v>90881</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3620,13 +3623,13 @@
         <v>55185</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3635,13 +3638,13 @@
         <v>13754</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>65</v>
@@ -3650,13 +3653,13 @@
         <v>68939</v>
       </c>
       <c r="O27" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P27" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="P27" s="7" t="s">
+      <c r="Q27" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3724,13 +3727,13 @@
         <v>578236</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H29" s="7">
         <v>639</v>
@@ -3739,13 +3742,13 @@
         <v>690546</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>1180</v>
@@ -3754,13 +3757,13 @@
         <v>1268782</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,13 +3778,13 @@
         <v>298429</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="H30" s="7">
         <v>141</v>
@@ -3790,13 +3793,13 @@
         <v>151411</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -3805,13 +3808,13 @@
         <v>449840</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3826,13 +3829,13 @@
         <v>260847</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>217</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
@@ -3841,13 +3844,13 @@
         <v>50704</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>218</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="M31" s="7">
         <v>294</v>
@@ -3856,13 +3859,13 @@
         <v>311551</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>223</v>
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3877,13 +3880,13 @@
         <v>274563</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H32" s="7">
         <v>48</v>
@@ -3892,13 +3895,13 @@
         <v>53829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="M32" s="7">
         <v>303</v>
@@ -3907,13 +3910,13 @@
         <v>328392</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3969,7 +3972,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3990,7 +3993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC1C5BEE-2254-45EA-8B73-360783CB3F93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB3283-060F-4AF0-9FA7-6E2D63D5FB76}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4007,7 +4010,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4114,13 +4117,13 @@
         <v>10325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4129,13 +4132,13 @@
         <v>20301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4144,13 +4147,13 @@
         <v>30627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4168,13 @@
         <v>13294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4180,13 +4183,13 @@
         <v>7057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4195,13 +4198,13 @@
         <v>20351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4219,13 @@
         <v>12481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4231,13 +4234,13 @@
         <v>1592</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4246,13 +4249,13 @@
         <v>14073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4270,13 @@
         <v>6813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4282,13 +4285,13 @@
         <v>941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4297,13 +4300,13 @@
         <v>7753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4371,13 +4374,13 @@
         <v>88980</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -4386,13 +4389,13 @@
         <v>95276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -4401,13 +4404,13 @@
         <v>184256</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4422,13 +4425,13 @@
         <v>37156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4437,13 +4440,13 @@
         <v>25488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>245</v>
+        <v>277</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4452,13 +4455,13 @@
         <v>62644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>223</v>
+        <v>280</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4473,13 +4476,13 @@
         <v>33006</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4488,13 +4491,13 @@
         <v>4771</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M11" s="7">
         <v>37</v>
@@ -4503,13 +4506,13 @@
         <v>37777</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4524,13 +4527,13 @@
         <v>40127</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4539,7 +4542,7 @@
         <v>11062</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>295</v>
@@ -4616,7 +4619,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -4715,7 +4718,7 @@
         <v>315</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,13 +4733,13 @@
         <v>60544</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4745,13 +4748,13 @@
         <v>15848</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4760,13 +4763,13 @@
         <v>76392</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>324</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4802,7 +4805,7 @@
         <v>329</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4811,13 +4814,13 @@
         <v>117423</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,7 +4876,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4885,13 +4888,13 @@
         <v>110830</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>336</v>
       </c>
       <c r="H19" s="7">
         <v>150</v>
@@ -4900,13 +4903,13 @@
         <v>151123</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>338</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>339</v>
+        <v>169</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -4915,13 +4918,13 @@
         <v>261952</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>340</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4939,13 @@
         <v>118009</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>345</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4951,13 +4954,13 @@
         <v>80619</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>347</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>348</v>
       </c>
       <c r="M20" s="7">
         <v>181</v>
@@ -4966,13 +4969,13 @@
         <v>198628</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>349</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4987,13 +4990,13 @@
         <v>59150</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>353</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -5002,13 +5005,13 @@
         <v>20309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>355</v>
+        <v>226</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -5017,13 +5020,13 @@
         <v>79459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5038,13 +5041,13 @@
         <v>74715</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5053,13 +5056,13 @@
         <v>18508</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -5068,13 +5071,13 @@
         <v>93223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>367</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>369</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,13 +5145,13 @@
         <v>191978</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="H24" s="7">
         <v>240</v>
@@ -5157,13 +5160,13 @@
         <v>255075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -5172,13 +5175,13 @@
         <v>447053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5193,13 +5196,13 @@
         <v>88166</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>381</v>
+        <v>293</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5208,13 +5211,13 @@
         <v>38332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>298</v>
+        <v>376</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -5223,13 +5226,13 @@
         <v>126498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>75</v>
+        <v>380</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5244,13 +5247,13 @@
         <v>62792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5259,13 +5262,13 @@
         <v>21680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -5274,13 +5277,13 @@
         <v>84472</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5295,13 +5298,13 @@
         <v>56383</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>395</v>
+        <v>262</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>251</v>
+        <v>392</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -5310,13 +5313,13 @@
         <v>9390</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="M27" s="7">
         <v>64</v>
@@ -5325,13 +5328,13 @@
         <v>65773</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>328</v>
+        <v>397</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5399,13 +5402,13 @@
         <v>545508</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H29" s="7">
         <v>704</v>
@@ -5414,13 +5417,13 @@
         <v>720170</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
@@ -5429,13 +5432,13 @@
         <v>1265678</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5450,13 +5453,13 @@
         <v>362042</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H30" s="7">
         <v>185</v>
@@ -5465,13 +5468,13 @@
         <v>191882</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -5480,13 +5483,13 @@
         <v>553924</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>418</v>
+        <v>345</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5501,13 +5504,13 @@
         <v>227972</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>420</v>
+        <v>391</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>122</v>
+        <v>253</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -5516,13 +5519,13 @@
         <v>64201</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="M31" s="7">
         <v>274</v>
@@ -5531,13 +5534,13 @@
         <v>292173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>425</v>
+        <v>174</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>426</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5552,13 +5555,13 @@
         <v>276320</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>313</v>
+        <v>421</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>427</v>
+        <v>222</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -5567,13 +5570,13 @@
         <v>59041</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="M32" s="7">
         <v>316</v>
@@ -5582,13 +5585,13 @@
         <v>335362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5644,7 +5647,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -5665,7 +5668,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5244CEBF-582D-4362-AA32-A354771D24CF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D53D65-3C01-49E1-BFD1-43968C890C42}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5682,7 +5685,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5789,13 +5792,13 @@
         <v>5550</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5804,13 +5807,13 @@
         <v>8155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5819,13 +5822,13 @@
         <v>13705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5843,13 @@
         <v>5286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5855,13 +5858,13 @@
         <v>5871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5870,13 +5873,13 @@
         <v>11157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5894,13 @@
         <v>2556</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>453</v>
+        <v>245</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5912,7 +5915,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5921,13 +5924,13 @@
         <v>2556</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +5945,13 @@
         <v>8923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5957,13 +5960,13 @@
         <v>2823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5972,13 +5975,13 @@
         <v>11746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>264</v>
+        <v>460</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6049,13 @@
         <v>39447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="H9" s="7">
         <v>107</v>
@@ -6061,13 +6064,13 @@
         <v>72525</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -6076,13 +6079,13 @@
         <v>111972</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6100,13 @@
         <v>46637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6112,13 +6115,13 @@
         <v>14816</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>25</v>
+        <v>475</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -6127,13 +6130,13 @@
         <v>61453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>481</v>
+        <v>109</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6151,13 @@
         <v>21561</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>324</v>
+        <v>479</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6163,13 +6166,13 @@
         <v>11625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -6178,13 +6181,13 @@
         <v>33186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>489</v>
+        <v>427</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6199,13 +6202,13 @@
         <v>44843</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -6214,13 +6217,13 @@
         <v>18013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -6229,13 +6232,13 @@
         <v>62856</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>369</v>
+        <v>494</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6291,7 +6294,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -6303,13 +6306,13 @@
         <v>131097</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -6318,13 +6321,13 @@
         <v>145588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="M14" s="7">
         <v>307</v>
@@ -6333,13 +6336,13 @@
         <v>276685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,13 +6357,13 @@
         <v>68167</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="H15" s="7">
         <v>67</v>
@@ -6369,13 +6372,13 @@
         <v>50169</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -6384,13 +6387,13 @@
         <v>118336</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6405,13 +6408,13 @@
         <v>54623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>517</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6420,13 +6423,13 @@
         <v>12365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -6435,10 +6438,10 @@
         <v>66988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>311</v>
@@ -6456,13 +6459,13 @@
         <v>112723</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>251</v>
+        <v>522</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6471,13 +6474,13 @@
         <v>15807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>330</v>
+        <v>526</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -6486,13 +6489,13 @@
         <v>128530</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>529</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>530</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6548,7 +6551,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6560,13 +6563,13 @@
         <v>63306</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>532</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>533</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>199</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6575,13 +6578,13 @@
         <v>114310</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>534</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>535</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>536</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -6590,13 +6593,13 @@
         <v>177617</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>537</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>538</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6611,13 +6614,13 @@
         <v>53729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>540</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>541</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -6626,13 +6629,13 @@
         <v>26054</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>542</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>543</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>544</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -6641,13 +6644,13 @@
         <v>79784</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>544</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>545</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>546</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6662,13 +6665,13 @@
         <v>32851</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>547</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>548</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="G21" s="7" t="s">
         <v>549</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -6677,10 +6680,10 @@
         <v>8943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>550</v>
@@ -6713,13 +6716,13 @@
         <v>29279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>425</v>
+        <v>554</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6728,13 +6731,13 @@
         <v>5274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6743,13 +6746,13 @@
         <v>34554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6817,13 +6820,13 @@
         <v>141239</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="H24" s="7">
         <v>226</v>
@@ -6832,13 +6835,13 @@
         <v>163884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="M24" s="7">
         <v>362</v>
@@ -6847,13 +6850,13 @@
         <v>305124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6868,10 +6871,10 @@
         <v>43571</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>571</v>
+        <v>71</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>572</v>
@@ -6886,10 +6889,10 @@
         <v>573</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>574</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>575</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -6898,13 +6901,13 @@
         <v>70033</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>575</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>576</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,13 +6922,13 @@
         <v>28704</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>577</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>578</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>579</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -6934,13 +6937,13 @@
         <v>4977</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>579</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>580</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>581</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>582</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6949,13 +6952,13 @@
         <v>33681</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>583</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>584</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6970,13 +6973,13 @@
         <v>21447</v>
       </c>
       <c r="E27" s="7" t="s">
+        <v>585</v>
+      </c>
+      <c r="F27" s="7" t="s">
         <v>586</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>587</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>588</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6985,13 +6988,13 @@
         <v>5597</v>
       </c>
       <c r="J27" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="K27" s="7" t="s">
         <v>589</v>
       </c>
-      <c r="K27" s="7" t="s">
+      <c r="L27" s="7" t="s">
         <v>590</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>591</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -7000,13 +7003,13 @@
         <v>27044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="P27" s="7" t="s">
+        <v>591</v>
+      </c>
+      <c r="Q27" s="7" t="s">
         <v>592</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7074,13 +7077,13 @@
         <v>380639</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>593</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>595</v>
-      </c>
       <c r="G29" s="7" t="s">
-        <v>596</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>688</v>
@@ -7089,13 +7092,13 @@
         <v>504463</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>597</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>598</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>599</v>
       </c>
       <c r="M29" s="7">
         <v>1035</v>
@@ -7104,13 +7107,13 @@
         <v>885102</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>599</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>600</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,13 +7128,13 @@
         <v>217389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>604</v>
+        <v>78</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>381</v>
+        <v>602</v>
       </c>
       <c r="H30" s="7">
         <v>159</v>
@@ -7140,13 +7143,13 @@
         <v>123373</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>428</v>
+        <v>488</v>
       </c>
       <c r="M30" s="7">
         <v>364</v>
@@ -7155,13 +7158,13 @@
         <v>340763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>333</v>
+        <v>605</v>
       </c>
       <c r="P30" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>607</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7176,10 +7179,10 @@
         <v>140295</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>152</v>
+        <v>608</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>609</v>
@@ -7191,13 +7194,13 @@
         <v>37910</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>610</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>611</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>612</v>
       </c>
       <c r="M31" s="7">
         <v>174</v>
@@ -7206,13 +7209,13 @@
         <v>178204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>425</v>
+        <v>554</v>
       </c>
       <c r="P31" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>613</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7257,13 +7260,13 @@
         <v>264731</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>104</v>
+        <v>620</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7319,7 +7322,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6607-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6607-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{209AED77-D8B7-4BB3-95A9-152C32F5C56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F62FE696-5D94-4EB2-8901-1C9D9A70D38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{151C1FC1-1C20-43F5-8BC5-E6FB1CBBED5B}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{AB36E1D8-5DF0-484E-B713-764159FD1151}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="623">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="633">
   <si>
     <t>Población según la exposición a trabajos al aire libre en su trabajo en 2012 (Tasa respuesta: 33,84%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>20,59%</t>
   </si>
   <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>32,29%</t>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
   </si>
   <si>
     <t>60,1%</t>
   </si>
   <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
+    <t>35,67%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
   </si>
   <si>
     <t>33,13%</t>
   </si>
   <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
+    <t>22,77%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
   </si>
   <si>
     <t>Algunas veces</t>
@@ -106,28 +106,28 @@
     <t>28,11%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>41,7%</t>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>42,63%</t>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>44,42%</t>
   </si>
   <si>
     <t>26,18%</t>
   </si>
   <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>38,08%</t>
   </si>
   <si>
     <t>Muchas veces</t>
@@ -136,1777 +136,1807 @@
     <t>16,33%</t>
   </si>
   <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>41,16%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>72,62%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>79,82%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>44,15%</t>
+  </si>
+  <si>
+    <t>54,78%</t>
+  </si>
+  <si>
+    <t>19,92%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>25,76%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>14,2%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>26,11%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>40,89%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>46,47%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>57,55%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>47,66%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,56%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,6%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>41,18%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>75,37%</t>
+  </si>
+  <si>
+    <t>69,79%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>61,87%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,01%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>10,73%</t>
+  </si>
+  <si>
+    <t>19,49%</t>
+  </si>
+  <si>
+    <t>16,61%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>10,35%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>38,32%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>69,76%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>14,79%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>30,98%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>42,72%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>30,02%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>44,65%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
+  </si>
+  <si>
+    <t>54,86%</t>
+  </si>
+  <si>
+    <t>50,22%</t>
+  </si>
+  <si>
+    <t>60,63%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>13,75%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>26,5%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>72,47%</t>
+  </si>
+  <si>
+    <t>66,84%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>54,1%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>24,11%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>28,51%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>20,31%</t>
+  </si>
+  <si>
+    <t>30,56%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>55,86%</t>
+  </si>
+  <si>
+    <t>48,96%</t>
+  </si>
+  <si>
+    <t>61,52%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>37,94%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
+  </si>
+  <si>
+    <t>34,91%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>43,08%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>73,81%</t>
+  </si>
+  <si>
+    <t>83,25%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>11,81%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>15,72%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,76%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>66,61%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>51,72%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>24,35%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>18,54%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>72,64%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>51,58%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>48,73%</t>
+  </si>
+  <si>
+    <t>34,85%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>44,77%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>18,11%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>16,76%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>16,05%</t>
+  </si>
+  <si>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>18,35%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>53,89%</t>
+  </si>
+  <si>
+    <t>69,54%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>47,96%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
     <t>8,41%</t>
   </si>
   <si>
-    <t>29,25%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>50,19%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>72,62%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>44,23%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>19,92%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>14,77%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>35,76%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>65,02%</t>
+  </si>
+  <si>
+    <t>59,06%</t>
+  </si>
+  <si>
+    <t>70,62%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>53,02%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>28,04%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>17,72%</t>
+  </si>
+  <si>
+    <t>58,61%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>41,03%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>46,46%</t>
+  </si>
+  <si>
+    <t>59,14%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
   </si>
   <si>
     <t>11,22%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>22,98%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>40,89%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>66,84%</t>
-  </si>
-  <si>
-    <t>78,23%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>49,86%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>24,68%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>25,6%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>41,77%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>48,18%</t>
-  </si>
-  <si>
-    <t>71,3%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>48,96%</t>
-  </si>
-  <si>
-    <t>57,94%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,5%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,65%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>24,01%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>51,18%</t>
-  </si>
-  <si>
-    <t>75,37%</t>
-  </si>
-  <si>
-    <t>69,99%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
-  </si>
-  <si>
-    <t>58,26%</t>
-  </si>
-  <si>
-    <t>54,7%</t>
-  </si>
-  <si>
-    <t>61,94%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>12,15%</t>
-  </si>
-  <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>51,51%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
+    <t>24,39%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>81,57%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>86,19%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>39,84%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>44,04%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>20,42%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
   </si>
   <si>
     <t>17,42%</t>
   </si>
   <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>20,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>15,37%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2016 (Tasa respuesta: 35,39%)</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>41,03%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>54,04%</t>
-  </si>
-  <si>
-    <t>30,98%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>46,24%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
-  </si>
-  <si>
-    <t>27,95%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>44,59%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>52,18%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>62,2%</t>
-  </si>
-  <si>
-    <t>77,3%</t>
-  </si>
-  <si>
-    <t>54,86%</t>
-  </si>
-  <si>
-    <t>48,68%</t>
-  </si>
-  <si>
-    <t>60,04%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>11,25%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>19,88%</t>
-  </si>
-  <si>
-    <t>30,47%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>72,47%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>46,23%</t>
-  </si>
-  <si>
-    <t>54,3%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>24,93%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>24,11%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>20,5%</t>
-  </si>
-  <si>
-    <t>30,56%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>55,86%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>37,11%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>27,67%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>35,3%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>15,73%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>43,03%</t>
-  </si>
-  <si>
-    <t>53,09%</t>
-  </si>
-  <si>
-    <t>78,61%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>82,97%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>58,22%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>11,81%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>15,72%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
     <t>5,31%</t>
   </si>
   <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>41,57%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>51,72%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>Población según la exposición a trabajos al aire libre en su trabajo en 2023 (Tasa respuesta: 20,52%)</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
   </si>
   <si>
     <t>25,29%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>59,72%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>39,99%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>67,28%</t>
-  </si>
-  <si>
-    <t>16,76%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>53,49%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>35,26%</t>
-  </si>
-  <si>
-    <t>47,74%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>39,67%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>18,77%</t>
-  </si>
-  <si>
-    <t>17,57%</t>
-  </si>
-  <si>
-    <t>28,3%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>22,56%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>35,76%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>65,02%</t>
-  </si>
-  <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>70,58%</t>
-  </si>
-  <si>
-    <t>46,85%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>53,13%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>28,41%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>73,95%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>59,31%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>23,91%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>25,45%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>53,18%</t>
-  </si>
-  <si>
-    <t>67,06%</t>
-  </si>
-  <si>
-    <t>81,57%</t>
-  </si>
-  <si>
-    <t>76,69%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>18,54%</t>
-  </si>
-  <si>
-    <t>24,81%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>39,84%</t>
-  </si>
-  <si>
-    <t>32,48%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>66,64%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>53,04%</t>
-  </si>
-  <si>
-    <t>47,96%</t>
-  </si>
-  <si>
-    <t>56,15%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,42%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>22,73%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>37,83%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
   </si>
 </sst>
 </file>
@@ -2318,7 +2348,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70BB83B4-99F2-486C-A22B-ED3F17F0A022}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BB0667A-F0CC-4B38-B73B-C4810880ED3F}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3112,10 +3142,10 @@
         <v>116</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>22</v>
+        <v>117</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H17" s="7">
         <v>15</v>
@@ -3124,13 +3154,13 @@
         <v>17765</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M17" s="7">
         <v>93</v>
@@ -3139,13 +3169,13 @@
         <v>102746</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3201,7 +3231,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -3213,13 +3243,13 @@
         <v>133724</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H19" s="7">
         <v>136</v>
@@ -3228,13 +3258,13 @@
         <v>152834</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M19" s="7">
         <v>260</v>
@@ -3243,13 +3273,13 @@
         <v>286558</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3264,13 +3294,13 @@
         <v>63016</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H20" s="7">
         <v>34</v>
@@ -3279,13 +3309,13 @@
         <v>36487</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M20" s="7">
         <v>92</v>
@@ -3294,13 +3324,13 @@
         <v>99504</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,13 +3345,13 @@
         <v>63559</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -3330,13 +3360,13 @@
         <v>13855</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M21" s="7">
         <v>67</v>
@@ -3345,13 +3375,13 @@
         <v>77414</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3366,13 +3396,13 @@
         <v>59865</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -3381,13 +3411,13 @@
         <v>11165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M22" s="7">
         <v>64</v>
@@ -3396,13 +3426,13 @@
         <v>71031</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3458,7 +3488,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3470,13 +3500,13 @@
         <v>191322</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H24" s="7">
         <v>219</v>
@@ -3485,13 +3515,13 @@
         <v>227234</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M24" s="7">
         <v>401</v>
@@ -3500,13 +3530,13 @@
         <v>418556</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3521,13 +3551,13 @@
         <v>96001</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H25" s="7">
         <v>41</v>
@@ -3536,13 +3566,13 @@
         <v>44005</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M25" s="7">
         <v>134</v>
@@ -3551,13 +3581,13 @@
         <v>140006</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3572,13 +3602,13 @@
         <v>74371</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H26" s="7">
         <v>15</v>
@@ -3587,13 +3617,13 @@
         <v>16510</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M26" s="7">
         <v>90</v>
@@ -3602,13 +3632,13 @@
         <v>90881</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3653,13 @@
         <v>55185</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="H27" s="7">
         <v>13</v>
@@ -3638,13 +3668,13 @@
         <v>13754</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M27" s="7">
         <v>65</v>
@@ -3653,13 +3683,13 @@
         <v>68939</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>195</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,10 +3811,10 @@
         <v>205</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H30" s="7">
         <v>141</v>
@@ -3793,13 +3823,13 @@
         <v>151411</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M30" s="7">
         <v>425</v>
@@ -3808,13 +3838,13 @@
         <v>449840</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3859,13 @@
         <v>260847</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H31" s="7">
         <v>46</v>
@@ -3844,13 +3874,13 @@
         <v>50704</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="M31" s="7">
         <v>294</v>
@@ -3859,13 +3889,13 @@
         <v>311551</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>76</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3910,13 @@
         <v>274563</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="H32" s="7">
         <v>48</v>
@@ -3895,13 +3925,13 @@
         <v>53829</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M32" s="7">
         <v>303</v>
@@ -3910,13 +3940,13 @@
         <v>328392</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -3972,7 +4002,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -3993,7 +4023,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFB3283-060F-4AF0-9FA7-6E2D63D5FB76}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3F82FD-E087-4887-B78C-287AC30EF50E}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4010,7 +4040,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4117,13 +4147,13 @@
         <v>10325</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4132,13 +4162,13 @@
         <v>20301</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M4" s="7">
         <v>31</v>
@@ -4147,13 +4177,13 @@
         <v>30627</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4168,13 +4198,13 @@
         <v>13294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>8</v>
@@ -4183,13 +4213,13 @@
         <v>7057</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M5" s="7">
         <v>21</v>
@@ -4198,13 +4228,13 @@
         <v>20351</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4219,13 +4249,13 @@
         <v>12481</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="H6" s="7">
         <v>2</v>
@@ -4234,13 +4264,13 @@
         <v>1592</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M6" s="7">
         <v>15</v>
@@ -4249,13 +4279,13 @@
         <v>14073</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4270,13 +4300,13 @@
         <v>6813</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="H7" s="7">
         <v>1</v>
@@ -4285,13 +4315,13 @@
         <v>941</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M7" s="7">
         <v>7</v>
@@ -4300,13 +4330,13 @@
         <v>7753</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4374,13 +4404,13 @@
         <v>88980</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -4389,13 +4419,13 @@
         <v>95276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M9" s="7">
         <v>181</v>
@@ -4404,13 +4434,13 @@
         <v>184256</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4425,13 +4455,13 @@
         <v>37156</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -4440,13 +4470,13 @@
         <v>25488</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M10" s="7">
         <v>61</v>
@@ -4455,13 +4485,13 @@
         <v>62644</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4476,13 +4506,13 @@
         <v>33006</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>284</v>
+        <v>106</v>
       </c>
       <c r="H11" s="7">
         <v>5</v>
@@ -4506,13 +4536,13 @@
         <v>37777</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,13 +4557,13 @@
         <v>40127</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="H12" s="7">
         <v>12</v>
@@ -4542,13 +4572,13 @@
         <v>11062</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M12" s="7">
         <v>50</v>
@@ -4557,13 +4587,13 @@
         <v>51190</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4634,10 +4664,10 @@
         <v>52</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="H14" s="7">
         <v>195</v>
@@ -4646,13 +4676,13 @@
         <v>198395</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M14" s="7">
         <v>326</v>
@@ -4661,13 +4691,13 @@
         <v>341790</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4682,13 +4712,13 @@
         <v>105418</v>
       </c>
       <c r="E15" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F15" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F15" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H15" s="7">
         <v>39</v>
@@ -4697,13 +4727,13 @@
         <v>40387</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K15" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K15" s="7" t="s">
+      <c r="L15" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M15" s="7">
         <v>132</v>
@@ -4712,13 +4742,13 @@
         <v>145805</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P15" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P15" s="7" t="s">
+      <c r="Q15" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -4733,13 +4763,13 @@
         <v>60544</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4748,13 +4778,13 @@
         <v>15848</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -4763,13 +4793,13 @@
         <v>76392</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P16" s="7" t="s">
-        <v>324</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4784,13 +4814,13 @@
         <v>98282</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>326</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="H17" s="7">
         <v>18</v>
@@ -4799,13 +4829,13 @@
         <v>19140</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>329</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>174</v>
       </c>
       <c r="M17" s="7">
         <v>110</v>
@@ -4876,7 +4906,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4909,7 +4939,7 @@
         <v>337</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>169</v>
+        <v>338</v>
       </c>
       <c r="M19" s="7">
         <v>252</v>
@@ -4918,13 +4948,13 @@
         <v>261952</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4939,13 +4969,13 @@
         <v>118009</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>76</v>
@@ -4954,13 +4984,13 @@
         <v>80619</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="M20" s="7">
         <v>181</v>
@@ -4969,13 +4999,13 @@
         <v>198628</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4990,13 +5020,13 @@
         <v>59150</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H21" s="7">
         <v>21</v>
@@ -5005,13 +5035,13 @@
         <v>20309</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>226</v>
+        <v>354</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M21" s="7">
         <v>73</v>
@@ -5020,13 +5050,13 @@
         <v>79459</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5071,13 @@
         <v>74715</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="H22" s="7">
         <v>18</v>
@@ -5056,13 +5086,13 @@
         <v>18508</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="M22" s="7">
         <v>85</v>
@@ -5071,13 +5101,13 @@
         <v>93223</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>366</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>150</v>
+        <v>368</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,7 +5163,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5145,13 +5175,13 @@
         <v>191978</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H24" s="7">
         <v>240</v>
@@ -5160,13 +5190,13 @@
         <v>255075</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M24" s="7">
         <v>428</v>
@@ -5175,13 +5205,13 @@
         <v>447053</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5226,13 @@
         <v>88166</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>374</v>
+        <v>87</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>379</v>
       </c>
       <c r="H25" s="7">
         <v>36</v>
@@ -5211,13 +5241,13 @@
         <v>38332</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="M25" s="7">
         <v>122</v>
@@ -5226,13 +5256,13 @@
         <v>126498</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5277,13 @@
         <v>62792</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="H26" s="7">
         <v>21</v>
@@ -5262,13 +5292,13 @@
         <v>21680</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="M26" s="7">
         <v>83</v>
@@ -5277,13 +5307,13 @@
         <v>84472</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,13 +5328,13 @@
         <v>56383</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>262</v>
+        <v>396</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>392</v>
+        <v>397</v>
       </c>
       <c r="H27" s="7">
         <v>9</v>
@@ -5313,13 +5343,13 @@
         <v>9390</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>393</v>
+        <v>398</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>394</v>
+        <v>399</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="M27" s="7">
         <v>64</v>
@@ -5328,13 +5358,13 @@
         <v>65773</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5432,13 @@
         <v>545508</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>704</v>
@@ -5417,13 +5447,13 @@
         <v>720170</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>1218</v>
@@ -5432,13 +5462,13 @@
         <v>1265678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>406</v>
+        <v>96</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,13 +5483,13 @@
         <v>362042</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="H30" s="7">
         <v>185</v>
@@ -5468,13 +5498,13 @@
         <v>191882</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>412</v>
+        <v>99</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="M30" s="7">
         <v>517</v>
@@ -5483,13 +5513,13 @@
         <v>553924</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>345</v>
+        <v>419</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5504,13 +5534,13 @@
         <v>227972</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>391</v>
+        <v>421</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>253</v>
+        <v>422</v>
       </c>
       <c r="H31" s="7">
         <v>64</v>
@@ -5519,13 +5549,13 @@
         <v>64201</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="M31" s="7">
         <v>274</v>
@@ -5534,13 +5564,13 @@
         <v>292173</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>174</v>
+        <v>427</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>233</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -5555,13 +5585,13 @@
         <v>276320</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>222</v>
+        <v>430</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>422</v>
+        <v>431</v>
       </c>
       <c r="H32" s="7">
         <v>58</v>
@@ -5570,13 +5600,13 @@
         <v>59041</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="M32" s="7">
         <v>316</v>
@@ -5585,13 +5615,13 @@
         <v>335362</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -5647,7 +5677,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
@@ -5668,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74D53D65-3C01-49E1-BFD1-43968C890C42}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EDD151E-11C0-4D1D-9259-F07A5BDF69BF}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5685,7 +5715,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5792,13 +5822,13 @@
         <v>5550</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -5807,13 +5837,13 @@
         <v>8155</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="M4" s="7">
         <v>16</v>
@@ -5822,13 +5852,13 @@
         <v>13705</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5843,13 +5873,13 @@
         <v>5286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>440</v>
+        <v>327</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="H5" s="7">
         <v>9</v>
@@ -5858,13 +5888,13 @@
         <v>5871</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="M5" s="7">
         <v>14</v>
@@ -5873,13 +5903,13 @@
         <v>11157</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5894,13 +5924,13 @@
         <v>2556</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>245</v>
+        <v>456</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5915,7 +5945,7 @@
         <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="M6" s="7">
         <v>3</v>
@@ -5924,13 +5954,13 @@
         <v>2556</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>452</v>
+        <v>461</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>453</v>
+        <v>462</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5945,13 +5975,13 @@
         <v>8923</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>454</v>
+        <v>463</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>455</v>
+        <v>464</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>456</v>
+        <v>465</v>
       </c>
       <c r="H7" s="7">
         <v>2</v>
@@ -5960,13 +5990,13 @@
         <v>2823</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>457</v>
+        <v>466</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>34</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>458</v>
+        <v>467</v>
       </c>
       <c r="M7" s="7">
         <v>9</v>
@@ -5975,13 +6005,13 @@
         <v>11746</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -6049,13 +6079,13 @@
         <v>39447</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>464</v>
+        <v>473</v>
       </c>
       <c r="H9" s="7">
         <v>107</v>
@@ -6064,13 +6094,13 @@
         <v>72525</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>465</v>
+        <v>474</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>466</v>
+        <v>475</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>467</v>
+        <v>476</v>
       </c>
       <c r="M9" s="7">
         <v>144</v>
@@ -6079,13 +6109,13 @@
         <v>111972</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>470</v>
+        <v>479</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6100,13 +6130,13 @@
         <v>46637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>471</v>
+        <v>480</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>472</v>
+        <v>481</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>473</v>
+        <v>482</v>
       </c>
       <c r="H10" s="7">
         <v>25</v>
@@ -6115,13 +6145,13 @@
         <v>14816</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="M10" s="7">
         <v>69</v>
@@ -6130,13 +6160,13 @@
         <v>61453</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>109</v>
+        <v>282</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6151,13 +6181,13 @@
         <v>21561</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>481</v>
+        <v>109</v>
       </c>
       <c r="H11" s="7">
         <v>16</v>
@@ -6166,13 +6196,13 @@
         <v>11625</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -6181,13 +6211,13 @@
         <v>33186</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>485</v>
+        <v>494</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>486</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6202,13 +6232,13 @@
         <v>44843</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>487</v>
+        <v>496</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>489</v>
+        <v>498</v>
       </c>
       <c r="H12" s="7">
         <v>27</v>
@@ -6217,13 +6247,13 @@
         <v>18013</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>490</v>
+        <v>499</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>491</v>
+        <v>500</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>492</v>
+        <v>446</v>
       </c>
       <c r="M12" s="7">
         <v>69</v>
@@ -6232,13 +6262,13 @@
         <v>62856</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6306,13 +6336,13 @@
         <v>131097</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -6321,13 +6351,13 @@
         <v>145588</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="M14" s="7">
         <v>307</v>
@@ -6336,13 +6366,13 @@
         <v>276685</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6357,13 +6387,13 @@
         <v>68167</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>505</v>
+        <v>244</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>506</v>
+        <v>149</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="H15" s="7">
         <v>67</v>
@@ -6372,13 +6402,13 @@
         <v>50169</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="M15" s="7">
         <v>133</v>
@@ -6387,13 +6417,13 @@
         <v>118336</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -6408,13 +6438,13 @@
         <v>54623</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>520</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="H16" s="7">
         <v>14</v>
@@ -6423,13 +6453,13 @@
         <v>12365</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="M16" s="7">
         <v>60</v>
@@ -6438,13 +6468,13 @@
         <v>66988</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>519</v>
+        <v>356</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>311</v>
+        <v>527</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6459,13 +6489,13 @@
         <v>112723</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>521</v>
+        <v>528</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>522</v>
+        <v>529</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>523</v>
+        <v>530</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -6474,13 +6504,13 @@
         <v>15807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>524</v>
+        <v>531</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>525</v>
+        <v>532</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
@@ -6489,13 +6519,13 @@
         <v>128530</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6551,7 +6581,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -6563,13 +6593,13 @@
         <v>63306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="H19" s="7">
         <v>151</v>
@@ -6578,13 +6608,13 @@
         <v>114310</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="M19" s="7">
         <v>206</v>
@@ -6593,13 +6623,13 @@
         <v>177617</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6614,13 +6644,13 @@
         <v>53729</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
@@ -6629,13 +6659,13 @@
         <v>26054</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>541</v>
+        <v>548</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>542</v>
+        <v>549</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>543</v>
+        <v>550</v>
       </c>
       <c r="M20" s="7">
         <v>73</v>
@@ -6644,13 +6674,13 @@
         <v>79784</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>544</v>
+        <v>551</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>545</v>
+        <v>552</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>546</v>
+        <v>553</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6665,13 +6695,13 @@
         <v>32851</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -6680,13 +6710,13 @@
         <v>8943</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>448</v>
+        <v>557</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>550</v>
+        <v>558</v>
       </c>
       <c r="M21" s="7">
         <v>39</v>
@@ -6695,13 +6725,13 @@
         <v>41794</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>551</v>
+        <v>387</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>552</v>
+        <v>521</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6716,13 +6746,13 @@
         <v>29279</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>443</v>
+        <v>560</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>555</v>
+        <v>562</v>
       </c>
       <c r="H22" s="7">
         <v>6</v>
@@ -6731,13 +6761,13 @@
         <v>5274</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="M22" s="7">
         <v>33</v>
@@ -6746,13 +6776,13 @@
         <v>34554</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>559</v>
+        <v>187</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6808,7 +6838,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6820,13 +6850,13 @@
         <v>141239</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>562</v>
+        <v>568</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="H24" s="7">
         <v>226</v>
@@ -6835,13 +6865,13 @@
         <v>163884</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>566</v>
+        <v>572</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="M24" s="7">
         <v>362</v>
@@ -6850,13 +6880,13 @@
         <v>305124</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>568</v>
+        <v>574</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6871,13 +6901,13 @@
         <v>43571</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>571</v>
+        <v>422</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>71</v>
+        <v>577</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="H25" s="7">
         <v>35</v>
@@ -6886,13 +6916,13 @@
         <v>26462</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>156</v>
+        <v>580</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>574</v>
+        <v>581</v>
       </c>
       <c r="M25" s="7">
         <v>75</v>
@@ -6901,13 +6931,13 @@
         <v>70033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>575</v>
+        <v>582</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>355</v>
+        <v>583</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,10 +6955,10 @@
         <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>578</v>
+        <v>101</v>
       </c>
       <c r="H26" s="7">
         <v>8</v>
@@ -6937,13 +6967,13 @@
         <v>4977</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="M26" s="7">
         <v>36</v>
@@ -6952,13 +6982,13 @@
         <v>33681</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>582</v>
+        <v>589</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>583</v>
+        <v>590</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6973,13 +7003,13 @@
         <v>21447</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>586</v>
+        <v>593</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>587</v>
+        <v>594</v>
       </c>
       <c r="H27" s="7">
         <v>7</v>
@@ -6988,13 +7018,13 @@
         <v>5597</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>588</v>
+        <v>595</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>589</v>
+        <v>596</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>590</v>
+        <v>597</v>
       </c>
       <c r="M27" s="7">
         <v>31</v>
@@ -7003,13 +7033,13 @@
         <v>27044</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>591</v>
+        <v>598</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>592</v>
+        <v>599</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -7077,13 +7107,13 @@
         <v>380639</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>593</v>
+        <v>600</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>602</v>
       </c>
       <c r="H29" s="7">
         <v>688</v>
@@ -7092,13 +7122,13 @@
         <v>504463</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="M29" s="7">
         <v>1035</v>
@@ -7107,13 +7137,13 @@
         <v>885102</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>598</v>
+        <v>371</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>599</v>
+        <v>606</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7128,13 +7158,13 @@
         <v>217389</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>78</v>
+        <v>422</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>602</v>
+        <v>609</v>
       </c>
       <c r="H30" s="7">
         <v>159</v>
@@ -7143,13 +7173,13 @@
         <v>123373</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>604</v>
+        <v>611</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>488</v>
+        <v>612</v>
       </c>
       <c r="M30" s="7">
         <v>364</v>
@@ -7158,13 +7188,13 @@
         <v>340763</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>606</v>
+        <v>614</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>607</v>
+        <v>615</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7179,13 +7209,13 @@
         <v>140295</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>608</v>
+        <v>616</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>388</v>
+        <v>617</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>609</v>
+        <v>618</v>
       </c>
       <c r="H31" s="7">
         <v>50</v>
@@ -7194,13 +7224,13 @@
         <v>37910</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>395</v>
+        <v>619</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="M31" s="7">
         <v>174</v>
@@ -7209,13 +7239,13 @@
         <v>178204</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>554</v>
+        <v>622</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>612</v>
+        <v>623</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>613</v>
+        <v>624</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7230,13 +7260,13 @@
         <v>217216</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>614</v>
+        <v>625</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>615</v>
+        <v>626</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>616</v>
+        <v>52</v>
       </c>
       <c r="H32" s="7">
         <v>64</v>
@@ -7245,13 +7275,13 @@
         <v>47515</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="M32" s="7">
         <v>221</v>
@@ -7260,13 +7290,13 @@
         <v>264731</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,7 +7352,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
   </sheetData>
